--- a/exporer_test_cases.xlsx
+++ b/exporer_test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DFEFB5D-1AF9-4D97-9A7A-8455D660E817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F05165-E4F7-471A-B63C-FC0F519F6D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15576" windowHeight="11904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="79">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
     <t>Created By</t>
   </si>
   <si>
@@ -41,9 +38,6 @@
   </si>
   <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>C34</t>
   </si>
   <si>
     <t>Создать директорию</t>
@@ -72,9 +66,6 @@
     <t>Functional</t>
   </si>
   <si>
-    <t>C35</t>
-  </si>
-  <si>
     <t>Создание директории на 255(max) символов</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
 5. Нажать ""Создать""</t>
   </si>
   <si>
-    <t>C36</t>
-  </si>
-  <si>
     <t>Создание директории на 256 символов</t>
   </si>
   <si>
@@ -108,12 +96,6 @@
 5. Нажать ""Создать""</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>C37</t>
-  </si>
-  <si>
     <t>Создание директории на 254 символа</t>
   </si>
   <si>
@@ -124,9 +106,6 @@
 5. Нажать ""Создать""</t>
   </si>
   <si>
-    <t>C38</t>
-  </si>
-  <si>
     <t>Создание директории на 0 символов</t>
   </si>
   <si>
@@ -145,9 +124,6 @@
 4. Строку ""Наименование папки"" оставить пустой</t>
   </si>
   <si>
-    <t>C39</t>
-  </si>
-  <si>
     <t>Удалить директорию</t>
   </si>
   <si>
@@ -159,9 +135,6 @@
     <t>1. Справа от директории нажать ""Меню"" (""Действия"")
 2. Нажать ""Удалить""
 3. Нажать ""Да""</t>
-  </si>
-  <si>
-    <t>C40</t>
   </si>
   <si>
     <t>Переименовать директорию</t>
@@ -179,9 +152,6 @@
 4. Нажать ""Переименовать""</t>
   </si>
   <si>
-    <t>C41</t>
-  </si>
-  <si>
     <t>Скачать содержиемое директории</t>
   </si>
   <si>
@@ -191,9 +161,6 @@
   <si>
     <t>1. Справа от директории нажать ""Меню"" (""Действия"")
 2. Нажать ""Скачать""</t>
-  </si>
-  <si>
-    <t>C42</t>
   </si>
   <si>
     <t>Создать папку внутри директории</t>
@@ -213,9 +180,6 @@
 5. Нажать ""Создать""</t>
   </si>
   <si>
-    <t>C43</t>
-  </si>
-  <si>
     <t>Загрузить файл</t>
   </si>
   <si>
@@ -231,9 +195,6 @@
 4. Нажать ""Начать загрузку""</t>
   </si>
   <si>
-    <t>C44</t>
-  </si>
-  <si>
     <t>Загрузить два и более файла</t>
   </si>
   <si>
@@ -249,9 +210,6 @@
 4. Нажать ""Начать загрузку""</t>
   </si>
   <si>
-    <t>C45</t>
-  </si>
-  <si>
     <t>Просмотреть файл</t>
   </si>
   <si>
@@ -259,9 +217,6 @@
   </si>
   <si>
     <t>1. В любой директории 2 раза ЛКМ нажать на файл</t>
-  </si>
-  <si>
-    <t>C46</t>
   </si>
   <si>
     <t>Скачать файл</t>
@@ -271,9 +226,6 @@
 2. Файл скачивается в ""Загрузки файла""</t>
   </si>
   <si>
-    <t>C47</t>
-  </si>
-  <si>
     <t>Скачать два и более файла</t>
   </si>
   <si>
@@ -283,9 +235,6 @@
   <si>
     <t>1. Справа от директории нажать ""Меню"" (""Действия"")
 2. Нажать ""Скачать"" на несколько файлов</t>
-  </si>
-  <si>
-    <t>C48</t>
   </si>
   <si>
     <t>Переименовать файл</t>
@@ -303,9 +252,6 @@
 4. Нажать ""Перименовать""</t>
   </si>
   <si>
-    <t>C49</t>
-  </si>
-  <si>
     <t>Удалить Файл</t>
   </si>
   <si>
@@ -317,9 +263,6 @@
     <t>1. Справа от файла нажать ""Меню"" (""Действия"")
 2. Нажать ""Удалить""
 3. Нажать ""Да""</t>
-  </si>
-  <si>
-    <t>C50</t>
   </si>
   <si>
     <t>Удалить два и более файла</t>
@@ -335,32 +278,111 @@
 2. Справа от файла нажать ""Меню"" (""Действия"")
 3. Нажать ""Удалить""
 4. Нажать ""Да""</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>FS.1.1</t>
+  </si>
+  <si>
+    <t>FS.1.2</t>
+  </si>
+  <si>
+    <t>FS.1.3</t>
+  </si>
+  <si>
+    <t>FS.1.4</t>
+  </si>
+  <si>
+    <t>FS.1.5</t>
+  </si>
+  <si>
+    <t>FS.1.6</t>
+  </si>
+  <si>
+    <t>FS.1.7</t>
+  </si>
+  <si>
+    <t>FS.1.8</t>
+  </si>
+  <si>
+    <t>FS.1.9</t>
+  </si>
+  <si>
+    <t>FS.2.1</t>
+  </si>
+  <si>
+    <t>FS.2.2</t>
+  </si>
+  <si>
+    <t>FS.2.3</t>
+  </si>
+  <si>
+    <t>FS.2.4</t>
+  </si>
+  <si>
+    <t>FS.2.5</t>
+  </si>
+  <si>
+    <t>FS.2.6</t>
+  </si>
+  <si>
+    <t>FS.2.7</t>
+  </si>
+  <si>
+    <t>FS.2.8</t>
+  </si>
+  <si>
+    <t>Работа с директорией</t>
+  </si>
+  <si>
+    <t>Работа с файлами</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -390,13 +412,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,437 +730,462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.88671875" customWidth="1"/>
-    <col min="6" max="6" width="31.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="30.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="51.109375" customWidth="1"/>
+    <col min="6" max="6" width="51" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="252" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="252" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="252" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="252" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="210" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="147" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="84" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="252" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" ht="189" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="189" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="84" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="F16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="84" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="168" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="126" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>13</v>
+      <c r="G20" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>